--- a/Maps/Mønster til TD spill.xlsx
+++ b/Maps/Mønster til TD spill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="4680" windowWidth="47800" windowHeight="25940" tabRatio="500"/>
+    <workbookView xWindow="26560" yWindow="620" windowWidth="33600" windowHeight="33220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Map 1" sheetId="2" r:id="rId1"/>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20:AH52"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="AW32" sqref="AW32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3480,7 +3480,7 @@
         <v>21</v>
       </c>
       <c r="AV41" s="20">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="AW41" s="20">
         <v>360</v>
@@ -3549,7 +3549,7 @@
         <v>22</v>
       </c>
       <c r="AV42" s="20">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AW42" s="20">
         <v>360</v>
@@ -3619,7 +3619,7 @@
         <v>23</v>
       </c>
       <c r="AV43" s="20">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="AW43" s="20">
         <v>360</v>
@@ -3670,7 +3670,7 @@
         <v>90</v>
       </c>
       <c r="AH44" s="20">
-        <f t="shared" ref="AH44:AH47" si="3">AH43-90</f>
+        <f t="shared" ref="AH44" si="3">AH43-90</f>
         <v>450</v>
       </c>
       <c r="AI44" s="3"/>
@@ -3758,7 +3758,7 @@
         <v>25</v>
       </c>
       <c r="AV45" s="20">
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="AW45" s="20">
         <v>270</v>
@@ -3965,7 +3965,7 @@
         <v>28</v>
       </c>
       <c r="AV48" s="20">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AW48" s="20">
         <v>90</v>
@@ -4029,7 +4029,7 @@
         <v>29</v>
       </c>
       <c r="AV49" s="20">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="AW49" s="20">
         <v>90</v>
@@ -4067,7 +4067,7 @@
         <v>30</v>
       </c>
       <c r="AV50" s="20">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="AW50">
         <v>90</v>

--- a/Maps/Mønster til TD spill.xlsx
+++ b/Maps/Mønster til TD spill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26560" yWindow="620" windowWidth="33600" windowHeight="33220" tabRatio="500"/>
+    <workbookView xWindow="-7900" yWindow="460" windowWidth="30360" windowHeight="29700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Map 1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>MAP 4</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>til</t>
+  </si>
+  <si>
+    <t>steps</t>
   </si>
 </sst>
 </file>
@@ -482,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="AW32" sqref="AW32"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="BB34" sqref="BB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -513,6 +522,8 @@
     <col min="49" max="51" width="5" customWidth="1"/>
     <col min="52" max="52" width="4.6640625" customWidth="1"/>
     <col min="53" max="53" width="5.1640625" customWidth="1"/>
+    <col min="54" max="54" width="4.5" customWidth="1"/>
+    <col min="55" max="55" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,7 +1754,7 @@
       <c r="AT16" s="5"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1802,7 @@
       <c r="AT17" s="5"/>
       <c r="AU17" s="3"/>
     </row>
-    <row r="18" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1814,18 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1851,7 +1873,7 @@
       <c r="AV18" s="5"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>0</v>
       </c>
@@ -1863,7 +1885,18 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="20">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <v>90</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1882,10 +1915,18 @@
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="V19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -1903,10 +1944,18 @@
       </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
+      <c r="AK19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN19" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
@@ -1923,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1935,7 +1984,20 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>H19</f>
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <f>G20+90*I20</f>
+        <v>450</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1954,10 +2016,19 @@
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="V20" s="20">
+        <v>0</v>
+      </c>
+      <c r="W20" s="20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f>W20+90*Y20</f>
+        <v>540</v>
+      </c>
+      <c r="Y20" s="20">
+        <v>6</v>
+      </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -1975,10 +2046,19 @@
       </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
+      <c r="AK20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <f>AL20+90*AN20</f>
+        <v>630</v>
+      </c>
+      <c r="AN20" s="20">
+        <v>7</v>
+      </c>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
@@ -1994,8 +2074,20 @@
       <c r="AW20" s="3">
         <v>810</v>
       </c>
-    </row>
-    <row r="21" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB20" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>2</v>
       </c>
@@ -2007,7 +2099,20 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="20">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G30" si="0">H20</f>
+        <v>450</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H30" si="1">G21+90*I21</f>
+        <v>1080</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2026,10 +2131,20 @@
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="V21" s="20">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <f>X20</f>
+        <v>540</v>
+      </c>
+      <c r="X21">
+        <f>W21+90*Y21</f>
+        <v>900</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -2047,10 +2162,20 @@
       </c>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
+      <c r="AK21" s="20">
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <f>AM20</f>
+        <v>630</v>
+      </c>
+      <c r="AM21">
+        <f>AL21+90*AN21</f>
+        <v>900</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
@@ -2067,8 +2192,21 @@
         <f>AW20-90</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <f>AZ21+90*BB21</f>
+        <v>270</v>
+      </c>
+      <c r="BB21" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2080,7 +2218,20 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="20">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2099,10 +2250,20 @@
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="V22" s="20">
+        <v>10</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22:W31" si="2">X21</f>
+        <v>900</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ref="X22:X31" si="3">W22+90*Y22</f>
+        <v>1170</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -2120,10 +2281,20 @@
       </c>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
+      <c r="AK22" s="20">
+        <v>10</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" ref="AL22:AL31" si="4">AM21</f>
+        <v>900</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" ref="AM22:AM31" si="5">AL22+90*AN22</f>
+        <v>1350</v>
+      </c>
+      <c r="AN22">
+        <v>5</v>
+      </c>
       <c r="AO22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
@@ -2137,11 +2308,25 @@
         <v>720</v>
       </c>
       <c r="AW22" s="3">
-        <f t="shared" ref="AW22:AW23" si="0">AW21-90</f>
+        <f t="shared" ref="AW22:AW23" si="6">AW21-90</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="23" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY22" s="20">
+        <v>3</v>
+      </c>
+      <c r="AZ22">
+        <f>BA21</f>
+        <v>270</v>
+      </c>
+      <c r="BA22">
+        <f>AZ22+90*BB22</f>
+        <v>450</v>
+      </c>
+      <c r="BB22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -2153,7 +2338,20 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="20">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1710</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2172,10 +2370,20 @@
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="V23" s="20">
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -2193,10 +2401,20 @@
       </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
+      <c r="AK23" s="20">
+        <v>15</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="4"/>
+        <v>1350</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="5"/>
+        <v>1980</v>
+      </c>
+      <c r="AN23">
+        <v>7</v>
+      </c>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
@@ -2210,11 +2428,25 @@
         <v>720</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY23" s="20">
+        <v>5</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" ref="AZ23:AZ34" si="7">BA22</f>
+        <v>450</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" ref="BA23:BA34" si="8">AZ23+90*BB23</f>
+        <v>630</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -2226,7 +2458,20 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="20">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1710</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1890</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2245,10 +2490,20 @@
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
+      <c r="V24" s="20">
+        <v>15</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>1530</v>
+      </c>
+      <c r="Y24">
+        <v>2</v>
+      </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -2266,10 +2521,20 @@
       </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
+      <c r="AK24" s="20">
+        <v>22</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="4"/>
+        <v>1980</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="5"/>
+        <v>2430</v>
+      </c>
+      <c r="AN24">
+        <v>5</v>
+      </c>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
@@ -2285,8 +2550,22 @@
       <c r="AW24" s="20">
         <v>540</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY24" s="20">
+        <v>7</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="7"/>
+        <v>630</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="8"/>
+        <v>1080</v>
+      </c>
+      <c r="BB24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>6</v>
       </c>
@@ -2298,7 +2577,20 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="20">
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2317,10 +2609,20 @@
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
+      <c r="V25" s="20">
+        <v>17</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="3"/>
+        <v>1980</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2338,10 +2640,20 @@
       </c>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
+      <c r="AK25" s="20">
+        <v>27</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="4"/>
+        <v>2430</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="5"/>
+        <v>2610</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
@@ -2357,8 +2669,22 @@
       <c r="AW25" s="20">
         <v>540</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY25" s="20">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="8"/>
+        <v>1530</v>
+      </c>
+      <c r="BB25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>7</v>
       </c>
@@ -2370,7 +2696,20 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="20">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2160</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2389,10 +2728,20 @@
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="V26" s="20">
+        <v>22</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="3"/>
+        <v>2610</v>
+      </c>
+      <c r="Y26">
+        <v>7</v>
+      </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2410,10 +2759,20 @@
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
+      <c r="AK26" s="20">
+        <v>29</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="4"/>
+        <v>2610</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="5"/>
+        <v>2790</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
       <c r="AO26" s="3"/>
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
@@ -2429,8 +2788,22 @@
       <c r="AW26" s="20">
         <v>630</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY26" s="20">
+        <v>17</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="7"/>
+        <v>1530</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="8"/>
+        <v>1710</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>8</v>
       </c>
@@ -2442,7 +2815,20 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="20">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2520</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2461,10 +2847,20 @@
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
+      <c r="V27" s="20">
+        <v>29</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>2610</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -2482,10 +2878,17 @@
       </c>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
+      <c r="AK27" s="20">
+        <v>31</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="4"/>
+        <v>2790</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="5"/>
+        <v>2790</v>
+      </c>
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
@@ -2501,8 +2904,22 @@
       <c r="AW27" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY27" s="20">
+        <v>19</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="7"/>
+        <v>1710</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>9</v>
       </c>
@@ -2514,7 +2931,20 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="20">
+        <v>28</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>2520</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>2610</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2533,10 +2963,20 @@
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
+      <c r="V28" s="20">
+        <v>30</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="3"/>
+        <v>2790</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -2554,10 +2994,7 @@
       </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
+      <c r="AK28" s="20"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
@@ -2573,8 +3010,22 @@
       <c r="AW28" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY28" s="20">
+        <v>20</v>
+      </c>
+      <c r="AZ28">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="BA28">
+        <f t="shared" si="8"/>
+        <v>2070</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -2586,7 +3037,20 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="20">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2610</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>2790</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2605,10 +3069,17 @@
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
+      <c r="V29" s="20">
+        <v>31</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>2790</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="3"/>
+        <v>2790</v>
+      </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2626,10 +3097,7 @@
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
+      <c r="AK29" s="20"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
@@ -2645,8 +3113,22 @@
       <c r="AW29" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="30" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY29" s="20">
+        <v>23</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="7"/>
+        <v>2070</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="8"/>
+        <v>2160</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>11</v>
       </c>
@@ -2658,7 +3140,17 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="20">
+        <v>31</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2790</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>2790</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2677,10 +3169,7 @@
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="V30" s="20"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -2698,10 +3187,7 @@
       </c>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
+      <c r="AK30" s="20"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
@@ -2717,8 +3203,22 @@
       <c r="AW30" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="31" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY30" s="20">
+        <v>24</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="7"/>
+        <v>2160</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="8"/>
+        <v>2250</v>
+      </c>
+      <c r="BB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>12</v>
       </c>
@@ -2749,10 +3249,7 @@
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
+      <c r="V31" s="20"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -2771,10 +3268,7 @@
       </c>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
+      <c r="AK31" s="20"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
@@ -2790,8 +3284,22 @@
       <c r="AW31" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="32" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY31" s="20">
+        <v>25</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" si="7"/>
+        <v>2250</v>
+      </c>
+      <c r="BA31">
+        <f t="shared" si="8"/>
+        <v>2430</v>
+      </c>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>13</v>
       </c>
@@ -2839,7 +3347,7 @@
         <v>720</v>
       </c>
       <c r="AH32" s="20">
-        <f t="shared" ref="AH32:AH33" si="1">AH31+90</f>
+        <f t="shared" ref="AH32:AH33" si="9">AH31+90</f>
         <v>360</v>
       </c>
       <c r="AI32" s="3"/>
@@ -2863,8 +3371,22 @@
       <c r="AW32" s="20">
         <v>720</v>
       </c>
-    </row>
-    <row r="33" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY32" s="20">
+        <v>27</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="7"/>
+        <v>2430</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="8"/>
+        <v>2700</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>14</v>
       </c>
@@ -2909,7 +3431,7 @@
         <v>720</v>
       </c>
       <c r="AH33" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="AI33" s="3"/>
@@ -2933,8 +3455,22 @@
       <c r="AW33" s="20">
         <v>630</v>
       </c>
-    </row>
-    <row r="34" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY33" s="20">
+        <v>30</v>
+      </c>
+      <c r="AZ33">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="BA33">
+        <f t="shared" si="8"/>
+        <v>2790</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>15</v>
       </c>
@@ -3002,8 +3538,19 @@
       <c r="AW34" s="20">
         <v>540</v>
       </c>
-    </row>
-    <row r="35" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AY34" s="20">
+        <v>31</v>
+      </c>
+      <c r="AZ34">
+        <f t="shared" si="7"/>
+        <v>2790</v>
+      </c>
+      <c r="BA34">
+        <f t="shared" si="8"/>
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>16</v>
       </c>
@@ -3072,7 +3619,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>17</v>
       </c>
@@ -3141,7 +3688,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>18</v>
       </c>
@@ -3210,7 +3757,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>19</v>
       </c>
@@ -3279,7 +3826,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>20</v>
       </c>
@@ -3348,7 +3895,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>21</v>
       </c>
@@ -3417,7 +3964,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>22</v>
       </c>
@@ -3486,7 +4033,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>23</v>
       </c>
@@ -3555,7 +4102,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>24</v>
       </c>
@@ -3625,7 +4172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>25</v>
       </c>
@@ -3652,7 +4199,7 @@
         <v>720</v>
       </c>
       <c r="S44">
-        <f t="shared" ref="S44:S49" si="2">S43-90</f>
+        <f t="shared" ref="S44:S49" si="10">S43-90</f>
         <v>540</v>
       </c>
       <c r="U44" s="3"/>
@@ -3670,7 +4217,7 @@
         <v>90</v>
       </c>
       <c r="AH44" s="20">
-        <f t="shared" ref="AH44" si="3">AH43-90</f>
+        <f t="shared" ref="AH44" si="11">AH43-90</f>
         <v>450</v>
       </c>
       <c r="AI44" s="3"/>
@@ -3695,7 +4242,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>26</v>
       </c>
@@ -3722,7 +4269,7 @@
         <v>720</v>
       </c>
       <c r="S45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="U45" s="3"/>
@@ -3764,7 +4311,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>27</v>
       </c>
@@ -3791,7 +4338,7 @@
         <v>720</v>
       </c>
       <c r="S46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>360</v>
       </c>
       <c r="U46" s="5"/>
@@ -3833,7 +4380,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22">
         <v>28</v>
       </c>
@@ -3860,7 +4407,7 @@
         <v>720</v>
       </c>
       <c r="S47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>270</v>
       </c>
       <c r="U47" s="3"/>
@@ -3902,7 +4449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="22">
         <v>29</v>
       </c>
@@ -3929,7 +4476,7 @@
         <v>720</v>
       </c>
       <c r="S48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="U48" s="3"/>
@@ -3993,7 +4540,7 @@
         <v>720</v>
       </c>
       <c r="S49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="U49" s="3"/>

--- a/Maps/Mønster til TD spill.xlsx
+++ b/Maps/Mønster til TD spill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7900" yWindow="460" windowWidth="30360" windowHeight="29700" tabRatio="500"/>
+    <workbookView xWindow="28360" yWindow="8220" windowWidth="24420" windowHeight="20400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Map 1" sheetId="2" r:id="rId1"/>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="BB34" sqref="BB34"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2254,11 +2254,11 @@
         <v>10</v>
       </c>
       <c r="W22">
-        <f t="shared" ref="W22:W31" si="2">X21</f>
+        <f t="shared" ref="W22:W29" si="2">X21</f>
         <v>900</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:X31" si="3">W22+90*Y22</f>
+        <f t="shared" ref="X22:X29" si="3">W22+90*Y22</f>
         <v>1170</v>
       </c>
       <c r="Y22">
@@ -2285,11 +2285,11 @@
         <v>10</v>
       </c>
       <c r="AL22">
-        <f t="shared" ref="AL22:AL31" si="4">AM21</f>
+        <f t="shared" ref="AL22:AL27" si="4">AM21</f>
         <v>900</v>
       </c>
       <c r="AM22">
-        <f t="shared" ref="AM22:AM31" si="5">AL22+90*AN22</f>
+        <f t="shared" ref="AM22:AM27" si="5">AL22+90*AN22</f>
         <v>1350</v>
       </c>
       <c r="AN22">
